--- a/Microservices/Assignment2.xlsx
+++ b/Microservices/Assignment2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\.NET\Microservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24BC6F-32B9-4901-B92D-6876D30DE000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FF7E8-E1E8-45CD-A620-C3E7EA5BD8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA833203-1EB8-431D-AE94-B6FA3CAB3C35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA833203-1EB8-431D-AE94-B6FA3CAB3C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Monolithic Architecture" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="72">
   <si>
     <t>Monolithic Architecture</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>RoleCode</t>
-  </si>
-  <si>
     <t>PaymentMethod</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Products</t>
   </si>
   <si>
     <t>Manufacturer</t>
@@ -616,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -661,6 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BBB2DE-5F6B-4532-A6BA-30BE2EC2C5B1}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,12 +1035,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="F6" s="44"/>
       <c r="G6" s="5"/>
       <c r="H6" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1060,9 +1050,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -1077,12 +1065,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1094,12 +1080,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1098,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1129,7 +1113,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1138,13 +1122,13 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1153,7 +1137,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1173,7 +1157,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1186,20 +1170,20 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="14" t="s">
@@ -1219,16 +1203,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1236,27 +1220,26 @@
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>19</v>
+      <c r="B20" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="12" t="s">
@@ -1273,7 +1256,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1284,12 +1267,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1311,7 +1294,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1322,7 +1305,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1333,7 +1316,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1344,7 +1327,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1375,7 +1358,7 @@
     </row>
     <row r="31" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -1395,7 +1378,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1406,7 +1389,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1417,7 +1400,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1428,7 +1411,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1439,7 +1422,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1479,7 +1462,7 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1551,23 +1534,23 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1583,7 +1566,7 @@
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1607,7 +1590,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1694,19 +1677,19 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1722,7 +1705,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
@@ -1748,7 +1731,7 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1772,7 +1755,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1807,7 +1790,7 @@
     </row>
     <row r="28" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -1863,11 +1846,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -1885,7 +1868,7 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1909,7 +1892,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1951,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1711C-9635-4B67-BD9D-4FF2D9C89EDD}">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +1950,7 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1991,7 +1974,7 @@
     </row>
     <row r="4" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -2043,19 +2026,19 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -2093,11 +2076,11 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -2106,19 +2089,19 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2131,11 +2114,11 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -2152,7 +2135,7 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -2165,7 +2148,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -2198,7 +2181,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2222,11 +2205,11 @@
     </row>
     <row r="19" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2237,11 +2220,11 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2252,11 +2235,11 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2267,11 +2250,11 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2304,7 +2287,7 @@
     </row>
     <row r="25" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2356,19 +2339,19 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -2406,11 +2389,11 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -2419,19 +2402,19 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -2444,16 +2427,16 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2465,12 +2448,12 @@
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2478,7 +2461,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -2496,7 +2479,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="13" t="s">
@@ -2526,7 +2509,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="15" t="s">
@@ -2541,7 +2524,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="28"/>
@@ -2567,7 +2550,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2580,7 +2563,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2604,7 +2587,7 @@
     </row>
     <row r="45" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2617,7 +2600,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2630,7 +2613,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2643,7 +2626,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2656,7 +2639,7 @@
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -2680,7 +2663,7 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2693,7 +2676,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2706,7 +2689,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2719,7 +2702,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2743,7 +2726,7 @@
     </row>
     <row r="56" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -2799,11 +2782,11 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="8"/>
@@ -2837,7 +2820,7 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="14" t="s">
@@ -2856,11 +2839,11 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
@@ -2869,11 +2852,11 @@
       <c r="B64" s="34"/>
       <c r="C64" s="5"/>
       <c r="D64" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2886,7 +2869,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2899,7 +2882,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2919,7 +2902,7 @@
     </row>
     <row r="68" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2932,7 +2915,7 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2945,7 +2928,7 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2958,7 +2941,7 @@
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -2982,7 +2965,7 @@
     </row>
     <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -2995,7 +2978,7 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3008,7 +2991,7 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3021,7 +3004,7 @@
     </row>
     <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
